--- a/data/hotels_by_city/Houston/Houston_shard_424.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_424.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56577-d106458-Reviews-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Rosenberg-Hotels-Knights-Inn-Rosenberg.h1338059.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,315 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r495709965-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>106458</t>
+  </si>
+  <si>
+    <t>495709965</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rats. Roaches. Pool with Bacteria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room paid for by employer, so many roaches I was buying 2 cans of roach killer a day. So many rats that wild cats run the traps each night looking for food. Swimming pool with filthy bacteria and green water (no chlorine treatment at all) appears most guests are transient or disabled. This was once a nice Holiday Inn that foreign owners have driven into ground. Filthy. The front desk manager is hostile and rude. Maybe the worst flop house in Texas. Sleep under a bridge before paying to stay here. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r345609286-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>345609286</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>STAY SOMEWHERE ELSE</t>
+  </si>
+  <si>
+    <t>This place is a rat hole!!!  If I had not been so tired from traveling all night I would NOT have stayed once I got in the room.  I could see out into the parking lot through a crack in the wall where the AC unit was below the window. No way would I have slept under the sheets or showered in this place. Dirty and disgusting, worn bedding and dingy gross bathroom. I can not say enough about how awful this place is.   This hotel needs a MAJOR renovation!!  They still have the large box TVs that I do not think have been manufactured for at least 10+ years now.   I have no idea how this place has not been shut down.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This place is a rat hole!!!  If I had not been so tired from traveling all night I would NOT have stayed once I got in the room.  I could see out into the parking lot through a crack in the wall where the AC unit was below the window. No way would I have slept under the sheets or showered in this place. Dirty and disgusting, worn bedding and dingy gross bathroom. I can not say enough about how awful this place is.   This hotel needs a MAJOR renovation!!  They still have the large box TVs that I do not think have been manufactured for at least 10+ years now.   I have no idea how this place has not been shut down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r329446689-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>329446689</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t>OMG...Wow</t>
+  </si>
+  <si>
+    <t>Never in my life have I visited a hotel that was so nasty and disgusting. There was flying roaches that would greet you from time to time. I didn't have food in my room and I'm sure I wasn't the only guests experiencing pest control issues. Even the parking lot needed work pot holes and bumps every where. It's located right off the freeway and I could literally hear every single large vehicle that passed by. Honestly I'm pretty sure management means well but at 59.99 at the rooms are 50.00 over priced nothing is new or updated and the place needs some major TLC.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r232621459-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>232621459</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>Horrible place</t>
+  </si>
+  <si>
+    <t>Room 221 was infested with Cock Roaches....it;s the room next to the maintenance man's room.Roaches every where from the bed board to behind the pictures on the wall. My bass player slept in his car...I just packed up and drove 200 miles with no sleep.This place needs to be turned into the Texas Health Dept.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r221430082-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>221430082</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>cool staff</t>
+  </si>
+  <si>
+    <t>The stay was great. The only problem is the pool is filled with what appears to be salt water.Need to have chlorine to kill germs. the staff was great and the motel is very quiet.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r214732134-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>214732134</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t>average, the braekfest offered was not very  healthy and...</t>
+  </si>
+  <si>
+    <t>average, the braekfest offered was not very  healthy and therefore I did not have any. Check in person not freindlly,,,,,,,,,,,,check out person very friendly</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r193999919-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>193999919</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Rat Hole</t>
+  </si>
+  <si>
+    <t>Exhausting day driving to be with our daughter who was in the hospital in Sugar Land, TX.  Used our (older) GPS, this place showed up as a Comfort Inn.  Took the room sight unseen just to have a bed.  If you like moldy smell, horribly stained, cigarette burned and filthy carpets, and bugs in the bathroom and landing on you in bed, this is your place!!  Too tired to change, we were careful of what we touched and got up early.  In the morning, could not get to the breakfast bar for all the "weeklys" that were plundering it.  Had to wait while they stocked up on up to 6-8 plates to carry back to their room to last the day.  For this we were charged $67.  Don't even CONSIDER staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Exhausting day driving to be with our daughter who was in the hospital in Sugar Land, TX.  Used our (older) GPS, this place showed up as a Comfort Inn.  Took the room sight unseen just to have a bed.  If you like moldy smell, horribly stained, cigarette burned and filthy carpets, and bugs in the bathroom and landing on you in bed, this is your place!!  Too tired to change, we were careful of what we touched and got up early.  In the morning, could not get to the breakfast bar for all the "weeklys" that were plundering it.  Had to wait while they stocked up on up to 6-8 plates to carry back to their room to last the day.  For this we were charged $67.  Don't even CONSIDER staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r166407286-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>166407286</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Clean,Quiet, and Pet Friendly!!</t>
+  </si>
+  <si>
+    <t>I was not ever going to stay at a Knights Inn again after the experience at the one on the beach in Corpus Christi, Texas....but this one looked nicer on the outside, so we asked to see a room BEFORE we booked and it was totally opposite of the that other one...This one was nice, so we stayed for a week.  We liked it so well that we booked for 2 more weeks, as my husband travels for his job....The staff were very friendly and the whole place was quiet. We had a room facing the pool, which was WONDERFUL and very clean (we took advantage of the pool every chance we got), and the cleaning staff was great with out little dashaund when they cleaned the room, even when we were not there...I would HIGHLY recommend this Knights in for a great price and a great stay!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I was not ever going to stay at a Knights Inn again after the experience at the one on the beach in Corpus Christi, Texas....but this one looked nicer on the outside, so we asked to see a room BEFORE we booked and it was totally opposite of the that other one...This one was nice, so we stayed for a week.  We liked it so well that we booked for 2 more weeks, as my husband travels for his job....The staff were very friendly and the whole place was quiet. We had a room facing the pool, which was WONDERFUL and very clean (we took advantage of the pool every chance we got), and the cleaning staff was great with out little dashaund when they cleaned the room, even when we were not there...I would HIGHLY recommend this Knights in for a great price and a great stay!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r154607856-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>154607856</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>Though the weather wasn't the best, the room was clean and comfortable, for being an older building. The breakfast was a nice treat, the "cook", was eager to please, asking how she could help improve the experience. Angie, at the desk, was also very kind and helpful, not too busy to answer my questions about nearby attractions....</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r118581295-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>118581295</t>
+  </si>
+  <si>
+    <t>09/25/2011</t>
+  </si>
+  <si>
+    <t>This place is a dump</t>
+  </si>
+  <si>
+    <t>This hotel is disgusting very noisy people running in and out all hours of the night! Pretty sure my room had bedbugs and room service will take your sheets off your bed early in the day and dirty towels and leave when you come back that evening from work I had to request for towels and fresh linens and had to finish myself this place is just pitiful do yourself a favor and go across the road to executive inn and stay</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r116753782-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>116753782</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>worst experience!!</t>
+  </si>
+  <si>
+    <t>had reservation for 3 days, drove 520 miles and got in at 4:30 AM.when I called to see when check in time was, the auditor told us to come on in., later I noticed we were charged $45 for 2 hours(4:30-6:30) which meant I had to pay another $45! the auditor never told us we would be charged, if that was the case, we would have waited the 2 hours before checking in. Not to mention we had no tv for 2 of 3 days!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r100428844-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>100428844</t>
+  </si>
+  <si>
+    <t>03/16/2011</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>This hotel is dirty and very noisy.the staff is very rude don't really care if your there or not. The staff is some what shady.There was very little cold water in the shower so it made for a scolding shower or a trickling warm shower.Just a very unpleasant stay.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r56809116-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56809116</t>
+  </si>
+  <si>
+    <t>02/22/2010</t>
+  </si>
+  <si>
+    <t>OMG - WORST HOTEL EVER</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was the closest location to a wedding reception I was attending... and let's just say I've been telling the horror story to EVERYONE since. First, when I opened the door to my non-smoking room, the odor and stench of stale smoke was nearly unbearable, but after leaving the door open for 2 hours to air it out (risking attracting the local riff-raff who kept walking by and peering in), we were able to breathe in the room. The smoke, however, was preferable to the overwhelming smell of urine. It was on the sheets, the bedspread, and the NIGHTSTAND. Yes, a pool of dried/congealed urine on the nightstand. So disgusting. If it hadn't been midnight when we discovered it, we would've left immediately. There was black mold in the bathroom and mildew in the mini fridge. My boyfriend woke up in the middle of the night with a raging fever and a cough/sore throat. I can only imagine what he caught in the room.We will NEVER stay here again and would strongly encourage you to find any other arrangement you can.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was the closest location to a wedding reception I was attending... and let's just say I've been telling the horror story to EVERYONE since. First, when I opened the door to my non-smoking room, the odor and stench of stale smoke was nearly unbearable, but after leaving the door open for 2 hours to air it out (risking attracting the local riff-raff who kept walking by and peering in), we were able to breathe in the room. The smoke, however, was preferable to the overwhelming smell of urine. It was on the sheets, the bedspread, and the NIGHTSTAND. Yes, a pool of dried/congealed urine on the nightstand. So disgusting. If it hadn't been midnight when we discovered it, we would've left immediately. There was black mold in the bathroom and mildew in the mini fridge. My boyfriend woke up in the middle of the night with a raging fever and a cough/sore throat. I can only imagine what he caught in the room.We will NEVER stay here again and would strongly encourage you to find any other arrangement you can.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r55063159-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>55063159</t>
+  </si>
+  <si>
+    <t>02/02/2010</t>
+  </si>
+  <si>
+    <t>would not give a star if I could</t>
+  </si>
+  <si>
+    <t>With all the ambiance of a crime scene, the room was just sad.  A broken bathroom  door with what I believe to be a smear of blood still on it, mildew in the corners of the tub, stains on the sheets and hair in the hair dryer, it was just gross.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r22498283-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>22498283</t>
+  </si>
+  <si>
+    <t>12/06/2008</t>
+  </si>
+  <si>
+    <t>Keep Looking, if you possibly can...</t>
+  </si>
+  <si>
+    <t>We got caught in post rush hour traffic due to the roadwork south of Houston and got off at the first exit we could.   We didn't know the area and it was dark.   Had we known, there is a cluster of nice hotels (Holiday Inn Express and others) at the next exit south and some just north (eg., the Hampton Inn).
+It's not a REALLY terrible hotel.   Hot water and heat worked and the bed was no worse than most Holiday Inn beds.   The staff were pleasant, helpful and honest.  Location is right off the Highway (couldn't be closer if you're going south).   Breakfast (such as it is) starts at 5:00 am.  There are fridges and microwaves in the rooms.
+But it's a PRETTY terrible hotel.   It feels very run down and sad in a way that is distracting.   My husband wanted to get out out of there so fast in the morning we forgot a whole bunch of important things and we had to drive back 1.5 hours (ouch).   The breakfast was far below average:  coffee, Sunny D drink, cereal and bread/buns.   No fruit, no boiled eggs, or yoghurt.    There is nothing walking distance around in the way of convenience stores or restaurants.  You have to drive.   
+In all fairness to the owners/management, there was a notice on the main door indicating that they had applied for a liquor licence.  Perhaps they have hopes of generating revenue to improve...We got caught in post rush hour traffic due to the roadwork south of Houston and got off at the first exit we could.   We didn't know the area and it was dark.   Had we known, there is a cluster of nice hotels (Holiday Inn Express and others) at the next exit south and some just north (eg., the Hampton Inn).It's not a REALLY terrible hotel.   Hot water and heat worked and the bed was no worse than most Holiday Inn beds.   The staff were pleasant, helpful and honest.  Location is right off the Highway (couldn't be closer if you're going south).   Breakfast (such as it is) starts at 5:00 am.  There are fridges and microwaves in the rooms.But it's a PRETTY terrible hotel.   It feels very run down and sad in a way that is distracting.   My husband wanted to get out out of there so fast in the morning we forgot a whole bunch of important things and we had to drive back 1.5 hours (ouch).   The breakfast was far below average:  coffee, Sunny D drink, cereal and bread/buns.   No fruit, no boiled eggs, or yoghurt.    There is nothing walking distance around in the way of convenience stores or restaurants.  You have to drive.   In all fairness to the owners/management, there was a notice on the main door indicating that they had applied for a liquor licence.  Perhaps they have hopes of generating revenue to improve the place in the future.   Until then, drive on just a bit farther.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>We got caught in post rush hour traffic due to the roadwork south of Houston and got off at the first exit we could.   We didn't know the area and it was dark.   Had we known, there is a cluster of nice hotels (Holiday Inn Express and others) at the next exit south and some just north (eg., the Hampton Inn).
+It's not a REALLY terrible hotel.   Hot water and heat worked and the bed was no worse than most Holiday Inn beds.   The staff were pleasant, helpful and honest.  Location is right off the Highway (couldn't be closer if you're going south).   Breakfast (such as it is) starts at 5:00 am.  There are fridges and microwaves in the rooms.
+But it's a PRETTY terrible hotel.   It feels very run down and sad in a way that is distracting.   My husband wanted to get out out of there so fast in the morning we forgot a whole bunch of important things and we had to drive back 1.5 hours (ouch).   The breakfast was far below average:  coffee, Sunny D drink, cereal and bread/buns.   No fruit, no boiled eggs, or yoghurt.    There is nothing walking distance around in the way of convenience stores or restaurants.  You have to drive.   
+In all fairness to the owners/management, there was a notice on the main door indicating that they had applied for a liquor licence.  Perhaps they have hopes of generating revenue to improve...We got caught in post rush hour traffic due to the roadwork south of Houston and got off at the first exit we could.   We didn't know the area and it was dark.   Had we known, there is a cluster of nice hotels (Holiday Inn Express and others) at the next exit south and some just north (eg., the Hampton Inn).It's not a REALLY terrible hotel.   Hot water and heat worked and the bed was no worse than most Holiday Inn beds.   The staff were pleasant, helpful and honest.  Location is right off the Highway (couldn't be closer if you're going south).   Breakfast (such as it is) starts at 5:00 am.  There are fridges and microwaves in the rooms.But it's a PRETTY terrible hotel.   It feels very run down and sad in a way that is distracting.   My husband wanted to get out out of there so fast in the morning we forgot a whole bunch of important things and we had to drive back 1.5 hours (ouch).   The breakfast was far below average:  coffee, Sunny D drink, cereal and bread/buns.   No fruit, no boiled eggs, or yoghurt.    There is nothing walking distance around in the way of convenience stores or restaurants.  You have to drive.   In all fairness to the owners/management, there was a notice on the main door indicating that they had applied for a liquor licence.  Perhaps they have hopes of generating revenue to improve the place in the future.   Until then, drive on just a bit farther.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +847,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +879,1030 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_424.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_424.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r577677370-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>106458</t>
+  </si>
+  <si>
+    <t>577677370</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Rosenberg nightmare Knights Inn</t>
+  </si>
+  <si>
+    <t>Worst possible hotel stay, don't waste your time. Filthy and breakfast is worth the time. They even kick you out of breakfast area if you are there after 9am. Terrilble. Tried to get my money back, still working on it. Brutal</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r574575400-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>574575400</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>HORRIBLE !</t>
+  </si>
+  <si>
+    <t>Roaches, dirty carpeting pulled out of some dumpster. Too late and too tired go someplace else. At the "complementary breakfast" in the morning, we were jostled and shouldered aside by a hoard of what appeared to be homeless persons who piled up food for up to SIX carryout containers to take back to their rooms to eat later. Checking out, the desk clerk was indifferent to my suggestions and evasive to my questions. Don't even drive by this dump unless you're doing seventy five on I-69.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r495709965-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
-    <t>56577</t>
-  </si>
-  <si>
-    <t>106458</t>
-  </si>
-  <si>
     <t>495709965</t>
   </si>
   <si>
@@ -219,7 +261,43 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r306125794-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>306125794</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>cheap stay</t>
+  </si>
+  <si>
+    <t>dirty but cheap and free breakfast.cockroaches and stained dirty towels. $59/day, $/week.free WiFi.some house keepers are really terrible.breakfast: coffee, 100% orange juice, milk, waffle, biscuit &amp; gravy, toast, Quaker oatmeal, cinnamon roll, corn flakes, and honey oats.pool is really salty and warm.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r233514447-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>233514447</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>Only two reasons to stay here,  One, all the other motels/hotels are full, two, you do not have room to sleep in your car.  Place is filthy, unkept, in need of repairs, and so on.  The rug in our room had not been cleaned in years.  Ground in grease and dirt.  Furniture in bad repair.  Guests mostly contract workes so they start leaving for work at 4am and continue with maids shouting at other maids in the mid morning.  A total ripoff for $60 a night.  Just keep on driving and find another motel/hotel.  You will be disappointed and dismayed how Wyndham allows this place to bear a coroporate franchise.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Only two reasons to stay here,  One, all the other motels/hotels are full, two, you do not have room to sleep in your car.  Place is filthy, unkept, in need of repairs, and so on.  The rug in our room had not been cleaned in years.  Ground in grease and dirt.  Furniture in bad repair.  Guests mostly contract workes so they start leaving for work at 4am and continue with maids shouting at other maids in the mid morning.  A total ripoff for $60 a night.  Just keep on driving and find another motel/hotel.  You will be disappointed and dismayed how Wyndham allows this place to bear a coroporate franchise.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r232621459-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
@@ -237,9 +315,6 @@
     <t>Room 221 was infested with Cock Roaches....it;s the room next to the maintenance man's room.Roaches every where from the bed board to behind the pictures on the wall. My bass player slept in his car...I just packed up and drove 200 miles with no sleep.This place needs to be turned into the Texas Health Dept.</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r221430082-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -258,9 +333,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r214732134-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -279,6 +351,39 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r214506036-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>214506036</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Don't risk your health</t>
+  </si>
+  <si>
+    <t>The room had mouse droppings (in the beds, between the sheets!), bugs (both living and dead), mold/mildew (in the main part of the room, as well as the bathroom), and some sort of white powdery substance behind the nightstand (that we really hope was some sort of drywall or plaster).The continental breakfast was average for a budget hotel, but it was only intermittently restocked by people (who looked like they'd rather have been anywhere else).The night clerk that checked us in on arrival seemed friendly, but was mostly concerned about keeping the lobby locked after hours. The clerk that checked us out was attentive and friendly, and actually seemed concerned about the room conditions. Of course, we were leaving, so we have no way to verify that anything has been done to correct the problems. We reserved the room online through Wyndham Rewards, so she said she was going to submit a request to Wyndham to refund us for our terrible room experience. I will update this in the event that happens.Either way, unless you're a health inspector or a demolition crew, avoid this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room had mouse droppings (in the beds, between the sheets!), bugs (both living and dead), mold/mildew (in the main part of the room, as well as the bathroom), and some sort of white powdery substance behind the nightstand (that we really hope was some sort of drywall or plaster).The continental breakfast was average for a budget hotel, but it was only intermittently restocked by people (who looked like they'd rather have been anywhere else).The night clerk that checked us in on arrival seemed friendly, but was mostly concerned about keeping the lobby locked after hours. The clerk that checked us out was attentive and friendly, and actually seemed concerned about the room conditions. Of course, we were leaving, so we have no way to verify that anything has been done to correct the problems. We reserved the room online through Wyndham Rewards, so she said she was going to submit a request to Wyndham to refund us for our terrible room experience. I will update this in the event that happens.Either way, unless you're a health inspector or a demolition crew, avoid this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r207823585-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>207823585</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Average for a Knights Inn</t>
+  </si>
+  <si>
+    <t>Just like most other hotels...understaffed for night shift. Tried to call office to let them know that tv remote didn't work and phone didn't work, so I had to call from my phone. I was told she had no one to bring me another and would have to come to office. It's not my job as a consumer to have to pay to do someone else's job.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r193999919-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -339,6 +444,42 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r128473535-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>128473535</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>100% agree with jm0107</t>
+  </si>
+  <si>
+    <t>I also reserved for 2 nights to attend a wedding a couple of days ago. Everything in jm0107's post is true. I have stayed in a lot of hotels/motels over the years including other Knight's Inns which were inexpensive and exceptionally clean with competent, personable staff. This particular one completely fell off the scale in all categories.Disgusting room-didn't walk on the rug in my bare feet; listened to hours of constant running, yelling, loud, profane arguments from inside the neighbors' rooms and also outside from both adults and children.8 hours after checking in, I checked out. Being the stellar establishment that this particular place is, they charged my credit card for BOTH nights. When I called to question the 2nd night's charge, I was told that it is their policy. They need to read their own policy which states a cancellation will result in being charged for 1 night only.I then contacted Knight's Inn headquarters and they are investigating to ensure I am reimbursed for the 2nd night. Plain and simple, management stole from me and had no qualms about lying about it.Do. Not. Go. There.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I also reserved for 2 nights to attend a wedding a couple of days ago. Everything in jm0107's post is true. I have stayed in a lot of hotels/motels over the years including other Knight's Inns which were inexpensive and exceptionally clean with competent, personable staff. This particular one completely fell off the scale in all categories.Disgusting room-didn't walk on the rug in my bare feet; listened to hours of constant running, yelling, loud, profane arguments from inside the neighbors' rooms and also outside from both adults and children.8 hours after checking in, I checked out. Being the stellar establishment that this particular place is, they charged my credit card for BOTH nights. When I called to question the 2nd night's charge, I was told that it is their policy. They need to read their own policy which states a cancellation will result in being charged for 1 night only.I then contacted Knight's Inn headquarters and they are investigating to ensure I am reimbursed for the 2nd night. Plain and simple, management stole from me and had no qualms about lying about it.Do. Not. Go. There.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r127104182-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>127104182</t>
+  </si>
+  <si>
+    <t>04/01/2012</t>
+  </si>
+  <si>
+    <t>Not nice, but cheap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was cheap(45$), but other then that it's crap. Room (non smoking) smelled like smoke and mold. Speaking of mold it was in a pillow case and all over the shower. Tv was broken? Beds were ok, but the pillows are super flat. Carpet on the floors are all stained and so on.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r118581295-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -391,6 +532,48 @@
   </si>
   <si>
     <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r62676226-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>62676226</t>
+  </si>
+  <si>
+    <t>04/28/2010</t>
+  </si>
+  <si>
+    <t>I don't like this hotel, but I hate paying big $$ even more.</t>
+  </si>
+  <si>
+    <t>Will cost you about $45-$55 to stay here, but all the other hotels in the area will cost you alot more (closer to $105 per night).  I hate paying alot of money for a few hours sleep, so I stay here--problem is that not always do I actually sleep.  Through the walls, I can hear the next door neighbors, I can hear the doors bang open and close, I can hear people getting into thier cars in the morning, but I especially hate how loud the ac units are.The beds made me itchy.  And I was just uncomfortable with the thoughts of uncleanliness.  The motel rooms are outdated, so be prepared to squirm and grimace upon staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Will cost you about $45-$55 to stay here, but all the other hotels in the area will cost you alot more (closer to $105 per night).  I hate paying alot of money for a few hours sleep, so I stay here--problem is that not always do I actually sleep.  Through the walls, I can hear the next door neighbors, I can hear the doors bang open and close, I can hear people getting into thier cars in the morning, but I especially hate how loud the ac units are.The beds made me itchy.  And I was just uncomfortable with the thoughts of uncleanliness.  The motel rooms are outdated, so be prepared to squirm and grimace upon staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r60474624-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>60474624</t>
+  </si>
+  <si>
+    <t>04/05/2010</t>
+  </si>
+  <si>
+    <t>Good Value...</t>
+  </si>
+  <si>
+    <t>I stayed in Room #120 the evening of the 29th and 30th and the room had a view of the entire swimming pool and courtyard. The facility was very attractive and upscale for a 70.00 price ranged Hotel. I did not have a reserved stay there planned but had seen them on this site before. The room was nonsmoking with a kingsized bed, a firm pillowtop with three pillows. They had a nice Breakfast and Meeting area that was well kept and stocked by staff. Room staff seemed very well dressed and had professional manners while attending guests or doing room services.I met a facility Manager when checking out, Michelle Wolfe who I asked for information regarding how to send this evaluation. She used her Business Card to write the tripadvisor.com address on the back , but She could not have known if I had a beef... I really was just being sure to remember how to find my way back for the value I just experienced.The reason I thought well of the stay was not just a good room but also the class of the other guests made me more comfortable. I hate the "too cheap" type of rooms where stuff isn't well kept, scuzzy looking folks hanging around looking untidy or like you can hear other clients being to loud... It felt as safe as a 100.00 room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I stayed in Room #120 the evening of the 29th and 30th and the room had a view of the entire swimming pool and courtyard. The facility was very attractive and upscale for a 70.00 price ranged Hotel. I did not have a reserved stay there planned but had seen them on this site before. The room was nonsmoking with a kingsized bed, a firm pillowtop with three pillows. They had a nice Breakfast and Meeting area that was well kept and stocked by staff. Room staff seemed very well dressed and had professional manners while attending guests or doing room services.I met a facility Manager when checking out, Michelle Wolfe who I asked for information regarding how to send this evaluation. She used her Business Card to write the tripadvisor.com address on the back , but She could not have known if I had a beef... I really was just being sure to remember how to find my way back for the value I just experienced.The reason I thought well of the stay was not just a good room but also the class of the other guests made me more comfortable. I hate the "too cheap" type of rooms where stuff isn't well kept, scuzzy looking folks hanging around looking untidy or like you can hear other clients being to loud... It felt as safe as a 100.00 room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r56809116-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
@@ -454,6 +637,21 @@
 It's not a REALLY terrible hotel.   Hot water and heat worked and the bed was no worse than most Holiday Inn beds.   The staff were pleasant, helpful and honest.  Location is right off the Highway (couldn't be closer if you're going south).   Breakfast (such as it is) starts at 5:00 am.  There are fridges and microwaves in the rooms.
 But it's a PRETTY terrible hotel.   It feels very run down and sad in a way that is distracting.   My husband wanted to get out out of there so fast in the morning we forgot a whole bunch of important things and we had to drive back 1.5 hours (ouch).   The breakfast was far below average:  coffee, Sunny D drink, cereal and bread/buns.   No fruit, no boiled eggs, or yoghurt.    There is nothing walking distance around in the way of convenience stores or restaurants.  You have to drive.   
 In all fairness to the owners/management, there was a notice on the main door indicating that they had applied for a liquor licence.  Perhaps they have hopes of generating revenue to improve...We got caught in post rush hour traffic due to the roadwork south of Houston and got off at the first exit we could.   We didn't know the area and it was dark.   Had we known, there is a cluster of nice hotels (Holiday Inn Express and others) at the next exit south and some just north (eg., the Hampton Inn).It's not a REALLY terrible hotel.   Hot water and heat worked and the bed was no worse than most Holiday Inn beds.   The staff were pleasant, helpful and honest.  Location is right off the Highway (couldn't be closer if you're going south).   Breakfast (such as it is) starts at 5:00 am.  There are fridges and microwaves in the rooms.But it's a PRETTY terrible hotel.   It feels very run down and sad in a way that is distracting.   My husband wanted to get out out of there so fast in the morning we forgot a whole bunch of important things and we had to drive back 1.5 hours (ouch).   The breakfast was far below average:  coffee, Sunny D drink, cereal and bread/buns.   No fruit, no boiled eggs, or yoghurt.    There is nothing walking distance around in the way of convenience stores or restaurants.  You have to drive.   In all fairness to the owners/management, there was a notice on the main door indicating that they had applied for a liquor licence.  Perhaps they have hopes of generating revenue to improve the place in the future.   Until then, drive on just a bit farther.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d106458-r7194721-Knights_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>7194721</t>
+  </si>
+  <si>
+    <t>03/19/2007</t>
+  </si>
+  <si>
+    <t>Save yourself</t>
+  </si>
+  <si>
+    <t>We all make mistakes.  Don't repeat mine.  This hotel was nasty and overpriced.  Just don't bother.  The room was horrible, the paint looked like it was all about to fall off the walls, I could go on but why?  The continental breakfast was even bad.  The danishes were expired.</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1186,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -996,12 +1194,22 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1054,16 +1262,16 @@
         <v>59</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1071,7 +1279,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1087,7 +1295,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1096,25 +1304,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1128,7 +1336,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1144,7 +1352,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1153,35 +1361,37 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="O5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1189,7 +1399,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1205,7 +1415,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1214,49 +1424,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1293,7 +1493,7 @@
         <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
         <v>86</v>
@@ -1301,21 +1501,17 @@
       <c r="O7" t="s">
         <v>59</v>
       </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1366,23 +1562,17 @@
         <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1427,29 +1617,23 @@
         <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1457,7 +1641,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1473,7 +1657,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1482,37 +1666,37 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" t="s">
-        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1524,7 +1708,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1540,7 +1724,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1549,39 +1733,49 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
         <v>108</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>109</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>110</v>
       </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
       <c r="O11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1597,7 +1791,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1606,37 +1800,37 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
         <v>114</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>115</v>
       </c>
-      <c r="K12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" t="s">
-        <v>117</v>
-      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1644,7 +1838,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1660,7 +1854,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1669,41 +1863,37 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>121</v>
       </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>123</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>124</v>
-      </c>
-      <c r="O13" t="s">
-        <v>59</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1711,7 +1901,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -1727,7 +1917,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1736,25 +1926,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
         <v>126</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>127</v>
       </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>130</v>
-      </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1763,14 +1953,14 @@
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1778,7 +1968,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1794,7 +1984,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1803,39 +1993,49 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
         <v>133</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>134</v>
       </c>
-      <c r="K15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>130</v>
-      </c>
       <c r="O15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -1851,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1860,31 +2060,31 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
         <v>138</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>139</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>140</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>141</v>
       </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>142</v>
-      </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
         <v>4</v>
@@ -1894,7 +2094,7 @@
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1902,7 +2102,712 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
         <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
